--- a/Linear Reggretion with Linear Algebra.xlsx
+++ b/Linear Reggretion with Linear Algebra.xlsx
@@ -8,13 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\8th Semester\Machine Learning\Class Work\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D7313DA2-7235-48C8-BC64-95CF47545EF8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F583C72-37C2-4CC9-BCF8-D5D3B2AC7C14}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{2759F7BB-F9B1-4FE9-A9D7-2B9927991F1F}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{2759F7BB-F9B1-4FE9-A9D7-2B9927991F1F}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +34,7 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
@@ -57,88 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="41">
-  <si>
-    <t>Y</t>
-  </si>
-  <si>
-    <t>X</t>
-  </si>
-  <si>
-    <t>SUMMARY OUTPUT</t>
-  </si>
-  <si>
-    <t>Regression Statistics</t>
-  </si>
-  <si>
-    <t>Multiple R</t>
-  </si>
-  <si>
-    <t>R Square</t>
-  </si>
-  <si>
-    <t>Adjusted R Square</t>
-  </si>
-  <si>
-    <t>Standard Error</t>
-  </si>
-  <si>
-    <t>Observations</t>
-  </si>
-  <si>
-    <t>ANOVA</t>
-  </si>
-  <si>
-    <t>Regression</t>
-  </si>
-  <si>
-    <t>Residual</t>
-  </si>
-  <si>
-    <t>Total</t>
-  </si>
-  <si>
-    <t>Intercept</t>
-  </si>
-  <si>
-    <t>df</t>
-  </si>
-  <si>
-    <t>SS</t>
-  </si>
-  <si>
-    <t>MS</t>
-  </si>
-  <si>
-    <t>F</t>
-  </si>
-  <si>
-    <t>Significance F</t>
-  </si>
-  <si>
-    <t>Coefficients</t>
-  </si>
-  <si>
-    <t>t Stat</t>
-  </si>
-  <si>
-    <t>P-value</t>
-  </si>
-  <si>
-    <t>Lower 95%</t>
-  </si>
-  <si>
-    <t>Upper 95%</t>
-  </si>
-  <si>
-    <t>X Variable 1</t>
-  </si>
-  <si>
-    <t>LR Values</t>
-  </si>
-  <si>
-    <t>CorCoefficient</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>Slope(m)</t>
   </si>
@@ -186,7 +104,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -194,39 +112,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="12">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF92D050"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF00B050"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -271,32 +163,12 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="3">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -331,39 +203,28 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="centerContinuous"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -677,299 +538,6 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A73F9635-6F13-42C1-8091-CFD6BE569B83}">
-  <dimension ref="D7:O25"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="6" max="6" width="10.6640625" customWidth="1"/>
-    <col min="7" max="7" width="11.77734375" customWidth="1"/>
-    <col min="9" max="9" width="14.109375" customWidth="1"/>
-    <col min="14" max="14" width="16.5546875" customWidth="1"/>
-    <col min="15" max="15" width="15.77734375" customWidth="1"/>
-    <col min="17" max="17" width="15.44140625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="7" spans="4:10" x14ac:dyDescent="0.3">
-      <c r="D7" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="F7" t="s">
-        <v>25</v>
-      </c>
-      <c r="G7" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="8" spans="4:10" x14ac:dyDescent="0.3">
-      <c r="D8" s="3">
-        <v>16</v>
-      </c>
-      <c r="E8" s="3">
-        <v>4</v>
-      </c>
-      <c r="F8">
-        <f>1.5*E8+10.5</f>
-        <v>16.5</v>
-      </c>
-      <c r="G8">
-        <f>CORREL(D8:D13,F8:F13)</f>
-        <v>0.81866523436472305</v>
-      </c>
-      <c r="I8" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="9" spans="4:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D9" s="3">
-        <v>12</v>
-      </c>
-      <c r="E9" s="3">
-        <v>3</v>
-      </c>
-      <c r="F9">
-        <f t="shared" ref="F9:F13" si="0">1.5*E9+10.5</f>
-        <v>15</v>
-      </c>
-    </row>
-    <row r="10" spans="4:10" x14ac:dyDescent="0.3">
-      <c r="D10" s="3">
-        <v>20</v>
-      </c>
-      <c r="E10" s="3">
-        <v>7</v>
-      </c>
-      <c r="F10">
-        <f t="shared" si="0"/>
-        <v>21</v>
-      </c>
-      <c r="I10" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="J10" s="7"/>
-    </row>
-    <row r="11" spans="4:10" x14ac:dyDescent="0.3">
-      <c r="D11" s="3">
-        <v>17</v>
-      </c>
-      <c r="E11" s="3">
-        <v>2</v>
-      </c>
-      <c r="F11">
-        <f t="shared" si="0"/>
-        <v>13.5</v>
-      </c>
-      <c r="I11" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="J11" s="4">
-        <v>0.81866523436472305</v>
-      </c>
-    </row>
-    <row r="12" spans="4:10" x14ac:dyDescent="0.3">
-      <c r="D12" s="3">
-        <v>18</v>
-      </c>
-      <c r="E12" s="3">
-        <v>6</v>
-      </c>
-      <c r="F12">
-        <f t="shared" si="0"/>
-        <v>19.5</v>
-      </c>
-      <c r="I12" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="J12" s="4">
-        <v>0.67021276595744683</v>
-      </c>
-    </row>
-    <row r="13" spans="4:10" x14ac:dyDescent="0.3">
-      <c r="D13" s="3">
-        <v>25</v>
-      </c>
-      <c r="E13" s="3">
-        <v>8</v>
-      </c>
-      <c r="F13">
-        <f t="shared" si="0"/>
-        <v>22.5</v>
-      </c>
-      <c r="I13" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="J13" s="4">
-        <v>0.5877659574468086</v>
-      </c>
-    </row>
-    <row r="14" spans="4:10" x14ac:dyDescent="0.3">
-      <c r="I14" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="J14" s="4">
-        <v>2.7838821814150108</v>
-      </c>
-    </row>
-    <row r="15" spans="4:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="I15" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="J15" s="5">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="17" spans="9:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="I17" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="18" spans="9:15" x14ac:dyDescent="0.3">
-      <c r="I18" s="6"/>
-      <c r="J18" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="K18" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="L18" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="M18" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="N18" s="6" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="19" spans="9:15" x14ac:dyDescent="0.3">
-      <c r="I19" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="J19" s="4">
-        <v>1</v>
-      </c>
-      <c r="K19" s="4">
-        <v>63</v>
-      </c>
-      <c r="L19" s="4">
-        <v>63</v>
-      </c>
-      <c r="M19" s="4">
-        <v>8.129032258064516</v>
-      </c>
-      <c r="N19" s="4">
-        <v>4.6342094011306713E-2</v>
-      </c>
-    </row>
-    <row r="20" spans="9:15" x14ac:dyDescent="0.3">
-      <c r="I20" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="J20" s="4">
-        <v>4</v>
-      </c>
-      <c r="K20" s="4">
-        <v>31</v>
-      </c>
-      <c r="L20" s="4">
-        <v>7.75</v>
-      </c>
-      <c r="M20" s="4"/>
-      <c r="N20" s="4"/>
-    </row>
-    <row r="21" spans="9:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="I21" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="J21" s="5">
-        <v>5</v>
-      </c>
-      <c r="K21" s="5">
-        <v>94</v>
-      </c>
-      <c r="L21" s="5"/>
-      <c r="M21" s="5"/>
-      <c r="N21" s="5"/>
-    </row>
-    <row r="23" spans="9:15" x14ac:dyDescent="0.3">
-      <c r="J23" t="s">
-        <v>19</v>
-      </c>
-      <c r="K23" t="s">
-        <v>7</v>
-      </c>
-      <c r="L23" t="s">
-        <v>20</v>
-      </c>
-      <c r="M23" t="s">
-        <v>21</v>
-      </c>
-      <c r="N23" t="s">
-        <v>22</v>
-      </c>
-      <c r="O23" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="24" spans="9:15" x14ac:dyDescent="0.3">
-      <c r="I24" t="s">
-        <v>13</v>
-      </c>
-      <c r="J24">
-        <v>10.5</v>
-      </c>
-      <c r="K24">
-        <v>2.8655382607477993</v>
-      </c>
-      <c r="L24">
-        <v>3.6642330496260374</v>
-      </c>
-      <c r="M24">
-        <v>2.1499991773411678E-2</v>
-      </c>
-      <c r="N24">
-        <v>2.5439903221897744</v>
-      </c>
-      <c r="O24">
-        <v>18.456009677810226</v>
-      </c>
-    </row>
-    <row r="25" spans="9:15" x14ac:dyDescent="0.3">
-      <c r="I25" t="s">
-        <v>24</v>
-      </c>
-      <c r="J25">
-        <v>1.4999999999999998</v>
-      </c>
-      <c r="K25">
-        <v>0.52610428080915117</v>
-      </c>
-      <c r="L25">
-        <v>2.8511457798689488</v>
-      </c>
-      <c r="M25">
-        <v>4.6342094011306713E-2</v>
-      </c>
-      <c r="N25">
-        <v>3.9300344723826708E-2</v>
-      </c>
-      <c r="O25">
-        <v>2.9606996552761728</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{903CEE4D-1446-46BB-8ADB-11B2F0AFBC44}">
   <dimension ref="D6:R20"/>
   <sheetViews>
@@ -985,263 +553,263 @@
   </cols>
   <sheetData>
     <row r="6" spans="4:18" x14ac:dyDescent="0.3">
-      <c r="E6" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="F6" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="K6" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="L6" s="14"/>
+      <c r="E6" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K6" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="L6" s="12"/>
     </row>
     <row r="7" spans="4:18" x14ac:dyDescent="0.3">
-      <c r="E7" s="11">
+      <c r="E7" s="4">
         <v>4</v>
       </c>
-      <c r="F7" s="11">
+      <c r="F7" s="4">
         <v>16</v>
       </c>
-      <c r="H7" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="I7" s="13">
+      <c r="H7" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="I7" s="6">
         <f>SLOPE(F7:F12, E7:E12)</f>
         <v>1.5</v>
       </c>
-      <c r="K7" s="15">
+      <c r="K7" s="7">
         <v>4</v>
       </c>
-      <c r="L7" s="15">
+      <c r="L7" s="7">
         <v>1</v>
       </c>
     </row>
     <row r="8" spans="4:18" x14ac:dyDescent="0.3">
-      <c r="E8" s="11">
+      <c r="E8" s="4">
         <v>3</v>
       </c>
-      <c r="F8" s="11">
+      <c r="F8" s="4">
         <v>12</v>
       </c>
-      <c r="H8" s="12" t="s">
-        <v>29</v>
-      </c>
-      <c r="I8" s="13">
+      <c r="H8" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="I8" s="6">
         <f>INTERCEPT(F7:F12, E7:E12)</f>
         <v>10.5</v>
       </c>
-      <c r="K8" s="15">
+      <c r="K8" s="7">
         <v>3</v>
       </c>
-      <c r="L8" s="15">
+      <c r="L8" s="7">
         <v>1</v>
       </c>
     </row>
     <row r="9" spans="4:18" x14ac:dyDescent="0.3">
-      <c r="E9" s="11">
+      <c r="E9" s="4">
         <v>7</v>
       </c>
-      <c r="F9" s="11">
+      <c r="F9" s="4">
         <v>20</v>
       </c>
-      <c r="H9" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="I9" s="13">
+      <c r="H9" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="I9" s="6">
         <f>CORREL(E7:E12, F7:F12)</f>
         <v>0.81866523436472283</v>
       </c>
-      <c r="K9" s="15">
+      <c r="K9" s="7">
         <v>7</v>
       </c>
-      <c r="L9" s="15">
+      <c r="L9" s="7">
         <v>1</v>
       </c>
     </row>
     <row r="10" spans="4:18" x14ac:dyDescent="0.3">
-      <c r="E10" s="11">
+      <c r="E10" s="4">
         <v>2</v>
       </c>
-      <c r="F10" s="11">
+      <c r="F10" s="4">
         <v>17</v>
       </c>
-      <c r="K10" s="15">
+      <c r="K10" s="7">
         <v>2</v>
       </c>
-      <c r="L10" s="15">
-        <v>1</v>
-      </c>
-      <c r="N10" s="14" t="s">
-        <v>37</v>
-      </c>
-      <c r="O10" s="14"/>
-      <c r="Q10" s="14" t="s">
-        <v>38</v>
-      </c>
-      <c r="R10" s="14"/>
+      <c r="L10" s="7">
+        <v>1</v>
+      </c>
+      <c r="N10" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="O10" s="12"/>
+      <c r="Q10" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="R10" s="12"/>
     </row>
     <row r="11" spans="4:18" x14ac:dyDescent="0.3">
-      <c r="E11" s="11">
+      <c r="E11" s="4">
         <v>6</v>
       </c>
-      <c r="F11" s="11">
+      <c r="F11" s="4">
         <v>18</v>
       </c>
-      <c r="K11" s="15">
+      <c r="K11" s="7">
         <v>6</v>
       </c>
-      <c r="L11" s="15">
-        <v>1</v>
-      </c>
-      <c r="N11" s="13" cm="1">
+      <c r="L11" s="7">
+        <v>1</v>
+      </c>
+      <c r="N11" s="6" cm="1">
         <f t="array" ref="N11:O12">MMULT(_xlfn.ANCHORARRAY(D15), K7:L12)</f>
         <v>178</v>
       </c>
-      <c r="O11" s="13">
+      <c r="O11" s="6">
         <v>30</v>
       </c>
-      <c r="Q11" s="13" cm="1">
+      <c r="Q11" s="6" cm="1">
         <f t="array" ref="Q11:R12">MINVERSE(_xlfn.ANCHORARRAY(N11))</f>
         <v>3.5714285714285698E-2</v>
       </c>
-      <c r="R11" s="13">
+      <c r="R11" s="6">
         <v>-0.17857142857142846</v>
       </c>
     </row>
     <row r="12" spans="4:18" x14ac:dyDescent="0.3">
-      <c r="E12" s="11">
+      <c r="E12" s="4">
         <v>8</v>
       </c>
-      <c r="F12" s="11">
+      <c r="F12" s="4">
         <v>25</v>
       </c>
-      <c r="K12" s="15">
+      <c r="K12" s="7">
         <v>8</v>
       </c>
-      <c r="L12" s="15">
-        <v>1</v>
-      </c>
-      <c r="N12" s="13">
+      <c r="L12" s="7">
+        <v>1</v>
+      </c>
+      <c r="N12" s="6">
         <v>30</v>
       </c>
-      <c r="O12" s="13">
+      <c r="O12" s="6">
         <v>6</v>
       </c>
-      <c r="Q12" s="13">
+      <c r="Q12" s="6">
         <v>-0.17857142857142846</v>
       </c>
-      <c r="R12" s="13">
+      <c r="R12" s="6">
         <v>1.0595238095238089</v>
       </c>
     </row>
     <row r="14" spans="4:18" x14ac:dyDescent="0.3">
-      <c r="D14" s="14" t="s">
-        <v>33</v>
-      </c>
-      <c r="E14" s="14"/>
-      <c r="F14" s="14"/>
-      <c r="G14" s="14"/>
-      <c r="H14" s="14"/>
-      <c r="I14" s="14"/>
-      <c r="K14" s="17" t="s">
-        <v>36</v>
-      </c>
-      <c r="L14" s="16"/>
+      <c r="D14" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="E14" s="12"/>
+      <c r="F14" s="12"/>
+      <c r="G14" s="12"/>
+      <c r="H14" s="12"/>
+      <c r="I14" s="12"/>
+      <c r="K14" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="L14" s="8"/>
     </row>
     <row r="15" spans="4:18" x14ac:dyDescent="0.3">
-      <c r="D15" s="15" cm="1">
+      <c r="D15" s="7" cm="1">
         <f t="array" ref="D15:I16">TRANSPOSE(K7:L12)</f>
         <v>4</v>
       </c>
-      <c r="E15" s="15">
+      <c r="E15" s="7">
         <v>3</v>
       </c>
-      <c r="F15" s="15">
+      <c r="F15" s="7">
         <v>7</v>
       </c>
-      <c r="G15" s="15">
+      <c r="G15" s="7">
         <v>2</v>
       </c>
-      <c r="H15" s="15">
+      <c r="H15" s="7">
         <v>6</v>
       </c>
-      <c r="I15" s="15">
+      <c r="I15" s="7">
         <v>8</v>
       </c>
-      <c r="K15" s="13">
+      <c r="K15" s="6">
         <v>16</v>
       </c>
-      <c r="M15" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="O15" s="19" t="s">
-        <v>40</v>
-      </c>
-      <c r="P15" s="19"/>
-      <c r="Q15" s="19"/>
-      <c r="R15" s="19"/>
+      <c r="M15" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O15" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="P15" s="11"/>
+      <c r="Q15" s="11"/>
+      <c r="R15" s="11"/>
     </row>
     <row r="16" spans="4:18" x14ac:dyDescent="0.3">
-      <c r="D16" s="15">
-        <v>1</v>
-      </c>
-      <c r="E16" s="15">
-        <v>1</v>
-      </c>
-      <c r="F16" s="15">
-        <v>1</v>
-      </c>
-      <c r="G16" s="15">
-        <v>1</v>
-      </c>
-      <c r="H16" s="15">
-        <v>1</v>
-      </c>
-      <c r="I16" s="15">
-        <v>1</v>
-      </c>
-      <c r="K16" s="13">
+      <c r="D16" s="7">
+        <v>1</v>
+      </c>
+      <c r="E16" s="7">
+        <v>1</v>
+      </c>
+      <c r="F16" s="7">
+        <v>1</v>
+      </c>
+      <c r="G16" s="7">
+        <v>1</v>
+      </c>
+      <c r="H16" s="7">
+        <v>1</v>
+      </c>
+      <c r="I16" s="7">
+        <v>1</v>
+      </c>
+      <c r="K16" s="6">
         <v>12</v>
       </c>
-      <c r="M16" s="9" cm="1">
+      <c r="M16" s="2" cm="1">
         <f t="array" ref="M16:M17">MMULT(_xlfn.ANCHORARRAY(D15), K15:K20)</f>
         <v>582</v>
       </c>
-      <c r="O16" s="18" t="s">
-        <v>34</v>
-      </c>
-      <c r="P16" s="13" cm="1">
+      <c r="O16" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="P16" s="6" cm="1">
         <f t="array" ref="P16:P17">MMULT(_xlfn.ANCHORARRAY(Q11),_xlfn.ANCHORARRAY( M16))</f>
         <v>1.5000000000000036</v>
       </c>
     </row>
     <row r="17" spans="11:16" x14ac:dyDescent="0.3">
-      <c r="K17" s="13">
+      <c r="K17" s="6">
         <v>20</v>
       </c>
-      <c r="M17" s="9">
+      <c r="M17" s="2">
         <v>108</v>
       </c>
-      <c r="O17" s="18" t="s">
-        <v>35</v>
-      </c>
-      <c r="P17" s="13">
+      <c r="O17" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="P17" s="6">
         <v>10.5</v>
       </c>
     </row>
     <row r="18" spans="11:16" x14ac:dyDescent="0.3">
-      <c r="K18" s="13">
+      <c r="K18" s="6">
         <v>17</v>
       </c>
     </row>
     <row r="19" spans="11:16" x14ac:dyDescent="0.3">
-      <c r="K19" s="13">
+      <c r="K19" s="6">
         <v>18</v>
       </c>
     </row>
     <row r="20" spans="11:16" x14ac:dyDescent="0.3">
-      <c r="K20" s="13">
+      <c r="K20" s="6">
         <v>25</v>
       </c>
     </row>
